--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3727008.162307232</v>
+        <v>3722749.900080761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554857</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7701155.051660065</v>
+        <v>7701155.051660064</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616888</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716174</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386877</v>
+        <v>29.08262894619221</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.753012324103679</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011788</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>209.4524610952462</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261774</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323703</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199491</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156106</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.54168784745916</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>188.3826488776973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616888</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716174</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>102.3029948719653</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.9649647752926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261774</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323703</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199491</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156106</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842215</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063372</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371272</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>174.6409316730417</v>
       </c>
       <c r="Y7" t="n">
-        <v>101.3750850020113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>138.3326806543334</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>296.9722950588268</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>242.9975032387551</v>
+        <v>198.5622246230541</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.8566572348588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>215.8306979277667</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
         <v>225.7478006422472</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856509</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>159.2661870898975</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695518</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>3.453391420153025</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>160.5201563761568</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.07147829118306</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.94435783112456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>147.8972104906228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>225.1222404669091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695544</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>109.0909680372345</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>34.21058558914704</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012181</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>65.25773758186595</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856602</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101224</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016449</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128565</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364138</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154444</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>94.30373791806565</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101224</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016449</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>897.0182384131178</v>
+        <v>1233.368087155861</v>
       </c>
       <c r="C2" t="n">
-        <v>897.0182384131178</v>
+        <v>864.4055702154494</v>
       </c>
       <c r="D2" t="n">
-        <v>897.0182384131178</v>
+        <v>506.1398716086989</v>
       </c>
       <c r="E2" t="n">
-        <v>511.2299858148736</v>
+        <v>506.1398716086989</v>
       </c>
       <c r="F2" t="n">
-        <v>504.2844850656701</v>
+        <v>499.1943708594955</v>
       </c>
       <c r="G2" t="n">
-        <v>491.2249987160046</v>
+        <v>82.09448046942583</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174011</v>
+        <v>82.09448046942583</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002241</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199788</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131897019</v>
+        <v>291.4544767981654</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070975</v>
+        <v>794.0498042278847</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026085</v>
+        <v>1419.239895182999</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780576</v>
+        <v>1964.401531937495</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833993002</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.143761215017</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
         <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2267.084655865092</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2013.391983920123</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2013.391983920123</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="W2" t="n">
-        <v>1660.623328650009</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="X2" t="n">
-        <v>1287.15757038893</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="Y2" t="n">
-        <v>897.0182384131178</v>
+        <v>1619.967927219983</v>
       </c>
     </row>
     <row r="3">
@@ -4385,58 +4385,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120982</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309712</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642645</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640344</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815786</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352067</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>499.1804835727211</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L3" t="n">
-        <v>1002.163317769829</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.051769638044</v>
+        <v>1446.292223162949</v>
       </c>
       <c r="N3" t="n">
-        <v>1832.438103619786</v>
+        <v>1643.297497944258</v>
       </c>
       <c r="O3" t="n">
-        <v>2298.524363244985</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018979</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267652</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373096</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
         <v>2267.787695880796</v>
@@ -4445,7 +4445,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347.5211286747877</v>
+        <v>371.7709099347269</v>
       </c>
       <c r="C4" t="n">
-        <v>347.5211286747877</v>
+        <v>202.8347270068199</v>
       </c>
       <c r="D4" t="n">
-        <v>347.5211286747877</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E4" t="n">
-        <v>199.6080350923946</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919721</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482298</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628107</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543698</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917011</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327076</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421849</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421849</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421849</v>
+        <v>1036.093413868871</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421849</v>
+        <v>1036.093413868871</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117351839</v>
+        <v>1036.093413868871</v>
       </c>
       <c r="V4" t="n">
-        <v>758.5992117351839</v>
+        <v>781.408925662984</v>
       </c>
       <c r="W4" t="n">
-        <v>758.5992117351839</v>
+        <v>781.408925662984</v>
       </c>
       <c r="X4" t="n">
-        <v>568.3137078183179</v>
+        <v>553.4193747649666</v>
       </c>
       <c r="Y4" t="n">
-        <v>347.5211286747877</v>
+        <v>553.4193747649666</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1522.338816979523</v>
+        <v>1324.153788395283</v>
       </c>
       <c r="C5" t="n">
-        <v>1153.376300039111</v>
+        <v>1324.153788395283</v>
       </c>
       <c r="D5" t="n">
-        <v>795.1106014323608</v>
+        <v>965.8880897885322</v>
       </c>
       <c r="E5" t="n">
-        <v>795.1106014323608</v>
+        <v>580.0998371902879</v>
       </c>
       <c r="F5" t="n">
-        <v>384.1246966427532</v>
+        <v>169.1139324006803</v>
       </c>
       <c r="G5" t="n">
-        <v>371.0652102930877</v>
+        <v>156.0544460510148</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448425</v>
+        <v>156.0544460510148</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002241</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199788</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L5" t="n">
-        <v>612.3584352436091</v>
+        <v>291.4544767981654</v>
       </c>
       <c r="M5" t="n">
-        <v>1241.992388124882</v>
+        <v>921.0884296794425</v>
       </c>
       <c r="N5" t="n">
-        <v>1867.182479079991</v>
+        <v>1546.278520634557</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.593372690809</v>
+        <v>2091.440157389053</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833993002</v>
+        <v>2519.04861869125</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.904379724212</v>
+        <v>2381.451089270047</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.904379724212</v>
+        <v>2050.388201926477</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.904379724212</v>
+        <v>1697.619546656362</v>
       </c>
       <c r="X5" t="n">
-        <v>2262.438621463132</v>
+        <v>1324.153788395283</v>
       </c>
       <c r="Y5" t="n">
-        <v>1908.938657043645</v>
+        <v>1324.153788395283</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.431881212099</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.978851930972</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697208</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642652</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911502</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640345</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815801</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448425</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448319987</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L6" t="n">
-        <v>667.2528399353479</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.189304916063</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N6" t="n">
-        <v>1958.575638897805</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
-        <v>2506.500878103476</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877469</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267652</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373096</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
         <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162598</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202654</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.407516997121</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.5647919393573</v>
+        <v>327.5097420413867</v>
       </c>
       <c r="C7" t="n">
-        <v>343.5647919393573</v>
+        <v>327.5097420413867</v>
       </c>
       <c r="D7" t="n">
-        <v>343.5647919393573</v>
+        <v>177.393102629051</v>
       </c>
       <c r="E7" t="n">
-        <v>195.6516983569642</v>
+        <v>177.393102629051</v>
       </c>
       <c r="F7" t="n">
-        <v>195.6516983569642</v>
+        <v>177.393102629051</v>
       </c>
       <c r="G7" t="n">
-        <v>195.6516983569642</v>
+        <v>177.393102629051</v>
       </c>
       <c r="H7" t="n">
-        <v>195.6516983569642</v>
+        <v>177.393102629051</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239709</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919721</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482298</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628107</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543698</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917011</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327076</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421849</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>917.0295025661651</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>917.0295025661651</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="T7" t="n">
-        <v>917.0295025661651</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>917.0295025661651</v>
+        <v>758.5992117351946</v>
       </c>
       <c r="V7" t="n">
-        <v>917.0295025661651</v>
+        <v>503.9147235293077</v>
       </c>
       <c r="W7" t="n">
-        <v>627.6123325292044</v>
+        <v>503.9147235293077</v>
       </c>
       <c r="X7" t="n">
-        <v>627.6123325292044</v>
+        <v>327.5097420413867</v>
       </c>
       <c r="Y7" t="n">
-        <v>525.213256769597</v>
+        <v>327.5097420413867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>563.7611443833259</v>
+        <v>1185.727434212263</v>
       </c>
       <c r="C8" t="n">
-        <v>563.7611443833259</v>
+        <v>816.7649172718509</v>
       </c>
       <c r="D8" t="n">
-        <v>205.4954457765754</v>
+        <v>458.4992186651004</v>
       </c>
       <c r="E8" t="n">
-        <v>205.4954457765754</v>
+        <v>72.7109660668562</v>
       </c>
       <c r="F8" t="n">
         <v>65.76546531765273</v>
@@ -4804,19 +4804,19 @@
         <v>52.71808759448425</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786755</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>644.8250996282661</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3287504086591</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.046561391971</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1535.380774283953</v>
+        <v>1578.671983591855</v>
       </c>
       <c r="O8" t="n">
         <v>1961.413372610017</v>
@@ -4831,25 +4831,25 @@
         <v>2635.904379724212</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.68934222104</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.889480488751</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="U8" t="n">
-        <v>2011.197777233902</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="V8" t="n">
-        <v>1680.134889890332</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="W8" t="n">
-        <v>1327.366234620217</v>
+        <v>2335.932364513276</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9004763591377</v>
+        <v>1962.466606252196</v>
       </c>
       <c r="Y8" t="n">
-        <v>563.7611443833259</v>
+        <v>1572.327274276384</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>52.71808759448425</v>
       </c>
       <c r="J9" t="n">
-        <v>132.4042390836351</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>461.832643389445</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>599.0622414051389</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>778.5595777597438</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.7709099347269</v>
+        <v>221.6542705223912</v>
       </c>
       <c r="C10" t="n">
-        <v>202.83472700682</v>
+        <v>52.71808759448425</v>
       </c>
       <c r="D10" t="n">
         <v>52.71808759448425</v>
@@ -4989,25 +4989,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>599.7604608327442</v>
+        <v>852.0848653941783</v>
       </c>
       <c r="X10" t="n">
-        <v>371.7709099347269</v>
+        <v>624.095314496161</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.7709099347269</v>
+        <v>403.3027353526309</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139842</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.2677182139842</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,70 +5260,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793924</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656153</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377086</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253729</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.61519755786</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1689.976512844123</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.559342807162</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909145</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.7772127656153</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819269</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111745</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075868</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014793</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355955</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694702</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,58 +5570,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756278</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468505</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962612</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962612</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517222</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756513</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.79962768589</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
         <v>2244.643795685161</v>
@@ -5639,7 +5639,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784051</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504984</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381627</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557697</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578595</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578595</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000578</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782966</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038365</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797783</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580272</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832675</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487579</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510521</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510521</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304634</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2622.596178821927</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3117.921785037686</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3715.300272664238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3122.22696873374</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2953.290785805833</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2803.174146393498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2655.261052811104</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2508.371105313194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2341.175006028074</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.1291986799067</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799067</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675711</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851781</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851781</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1271.559793551693</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1043.570242653676</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>822.7776635101463</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>614.6217844681063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,25 +6475,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2230.526258124964</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2010.924793147904</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1721.849566492102</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1467.165078286215</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1177.747908249255</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.734188001556</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073649</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3450.175231975326</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3450.175231975326</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3229.382652831796</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803939</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069459</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961553</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.11687420084</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2445.740023695908</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2940.578503903501</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>2771.642320975594</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D40" t="n">
-        <v>2621.525681563258</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>2621.525681563258</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503513</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218393</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218393</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650997</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650997</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673939</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018137</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812249</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3571.009098775289</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3343.019547877271</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>3122.226968733741</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192464</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111672</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075719</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332373</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014804</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355956</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068023</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694715</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273844</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803913</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803913</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.273791312352</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938899</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493501</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732783</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732783</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107664</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7523,7 +7523,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
         <v>1781.463605996603</v>
@@ -7532,7 +7532,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.614450297915</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.872235754074</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>853.9360528261676</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>703.8194134138319</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>555.9063198314387</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>409.0163723335284</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
-        <v>241.8202730484083</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000588</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782946</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038314</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797691</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570807</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.08939327979</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853347</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580245</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832646</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487551</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487551</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831749</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625862</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.302830625862</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.313279727844</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.520700584314</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638196959</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803112126</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611076171</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332418</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014804</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355955</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068022</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694714</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756248</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756248</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654639</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933892011</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446613</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685895</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685895</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7760,7 +7760,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
         <v>1781.463605996603</v>
@@ -7769,7 +7769,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.614450297915</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958571</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679502</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556144</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>335.9629114732213</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>189.072963975311</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>189.072963975311</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782946</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038314</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797691</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570807</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.08939327979</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853347</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580245</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832646</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487551</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510492</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510492</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304605</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267644</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369627</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922260968</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>81.64644236979078</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>321.19168960237</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -7996,10 +7996,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>388.1816083491099</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792297</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>311.1966833368587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>140.6479154610542</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>83.99314676944203</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026547799</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>151.7987906632987</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>58.85246329939895</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792297</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>258.4480535445495</v>
+        <v>214.7195592941432</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>86.72426729218176</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>458.312719524321</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-8.360466259697908e-14</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.115019353572279e-11</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.406371760507118e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.615685611497611e-11</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.727996117235989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>36.30694539606117</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>127.2568112466934</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>136.8413214260707</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>126.0028419604341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.76050189075424</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.6402955209702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>33.12907551102182</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>61.40075786968194</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>58.15585306139334</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.2104624337844</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.03697526435805</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>45.99097492815835</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856602</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>710627.1980797879</v>
+        <v>710627.1980797871</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>710627.1980797879</v>
+        <v>710627.1980797871</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651206.775437116</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651206.7754371156</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651206.7754371164</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651206.7754371156</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055064</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055051</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705505</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222354</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448479709</v>
+        <v>2553.741448474301</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329922</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.949842150381301e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
-        <v>8.932537249555545e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-4.647863188777895e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.445446936746261e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408968</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408968</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695025</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695014</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695159</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531694531</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695155</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695034</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.48053169503</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531694878</v>
-      </c>
       <c r="O4" t="n">
-        <v>6287.480531695878</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695046</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.1201253843</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.1201253843</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
         <v>86631.12555917783</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26508,10 +26508,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239069</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280858.7124174476</v>
+        <v>-280858.7124174521</v>
       </c>
       <c r="C6" t="n">
-        <v>508987.2207047875</v>
+        <v>508987.2207047889</v>
       </c>
       <c r="D6" t="n">
-        <v>506872.2288974089</v>
+        <v>506872.2288974143</v>
       </c>
       <c r="E6" t="n">
-        <v>-116245.012883088</v>
+        <v>-116592.3921374455</v>
       </c>
       <c r="F6" t="n">
-        <v>659379.2593499037</v>
+        <v>659031.8800955469</v>
       </c>
       <c r="G6" t="n">
-        <v>659379.2593498991</v>
+        <v>659031.8800955468</v>
       </c>
       <c r="H6" t="n">
-        <v>659379.2593499039</v>
+        <v>659031.8800955469</v>
       </c>
       <c r="I6" t="n">
-        <v>659379.2593499037</v>
+        <v>659031.8800955465</v>
       </c>
       <c r="J6" t="n">
-        <v>486962.1179677632</v>
+        <v>486614.7387134063</v>
       </c>
       <c r="K6" t="n">
-        <v>659379.2593499038</v>
+        <v>659031.8800955471</v>
       </c>
       <c r="L6" t="n">
-        <v>659379.2593499037</v>
+        <v>659031.8800955469</v>
       </c>
       <c r="M6" t="n">
-        <v>531355.1418835169</v>
+        <v>531007.7626291603</v>
       </c>
       <c r="N6" t="n">
-        <v>659379.259349904</v>
+        <v>659031.8800955466</v>
       </c>
       <c r="O6" t="n">
-        <v>659379.2593499086</v>
+        <v>659031.8800955469</v>
       </c>
       <c r="P6" t="n">
-        <v>659379.2593499029</v>
+        <v>659031.8800955469</v>
       </c>
     </row>
   </sheetData>
@@ -26697,16 +26697,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.494199705334</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.494199705334</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26752,7 +26752,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341665</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.976094931053</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.976094931053</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
         <v>658.976094931053</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.966615459035108e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.806808670932826e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.494199705334</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632731026</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.366462912410498e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-8.701470633993791e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.976094931053</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>513.7321931685954</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310531</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685955</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.976094931053</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>513.7321931685954</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>89.87556159249452</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25187747708577</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842215</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063372</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371272</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937735</v>
+        <v>193.9179039463141</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>37.32700651133985</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386877</v>
+        <v>16.65519566672145</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.753012324103679</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011788</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.27297388076101</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465901</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937735</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>51.06872371599542</v>
       </c>
       <c r="Y7" t="n">
-        <v>117.2095683500835</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>268.543365087378</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>52.26867365858618</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28061,7 +28061,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>43.52549509783589</v>
+        <v>87.96077371353692</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966165</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414974</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171817</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009673</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071051</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160784</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337055</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635056</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129733</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.362026272871</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605202</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.116105617046</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506655</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179939</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172932</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.27011959936619</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387873</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817805</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401189</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976536</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623827</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.819338839407</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351566</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492005</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789702</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190948</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064823</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822725</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.1194732974453</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830202</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026012</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.46726766084946</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303681</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603906</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546585</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177219</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609684</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203261</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953858</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324551</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550544</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004231</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319877</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565687</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.058081396692328</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966165</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414974</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171817</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009673</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071051</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160784</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337055</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635056</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129733</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.362026272871</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605202</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.116105617046</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506655</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179939</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172932</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.27011959936619</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387873</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817805</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401189</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976536</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623827</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.819338839407</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351566</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492005</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789702</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190948</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064823</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822725</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.1194732974453</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830202</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026012</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084946</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303681</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603906</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546585</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177219</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609684</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203261</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953858</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324551</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550544</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004231</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319877</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565687</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.058081396692328</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>403.852496713802</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>604.7968300725076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473102</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437275</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>202.2352659288528</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485307</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>379.8551982710405</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,25 +32785,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>459.3154675919703</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -33022,13 +33022,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,7 +33037,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33046,10 +33046,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>669.4669885000068</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33733,25 +33733,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>435.9638754389774</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,31 +33976,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>248.3870916262909</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162505</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292892</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865943</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521082</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007743</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420737</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>402.2342772869052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862073</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071735</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437197</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485266</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418549</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121556</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348398</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135304</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663252</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.544175081753</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162505</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175612</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159362</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626459968</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236456</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669184</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043703</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292892</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651512</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078717</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865943</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521082</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420737</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655703</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862073</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071735</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437197</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485266</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742403</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937726</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275942</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189887</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121556</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869227</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.405663379625</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355159</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588129</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.688550039202</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106764</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920035</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417295</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515914</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670471</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532738</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099315</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467213</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428097</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332893</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>220.490734615882</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992653</v>
+        <v>507.6720479088073</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423788989</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540319</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176015</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607067</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.251857313861</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358732</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859677</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173887</v>
+        <v>567.8669132665021</v>
       </c>
       <c r="N3" t="n">
-        <v>658.976094931053</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O3" t="n">
-        <v>470.7942016416148</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646399</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689223</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287756</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.900552178038</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.500130822809</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995547</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094255</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973486</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811051</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428097</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332893</v>
+        <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460912</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992653</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423788989</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>310.5160541523407</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890842</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607067</v>
+        <v>118.0361222555155</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358732</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>289.0219142458072</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673887</v>
+        <v>238.5377682167912</v>
       </c>
       <c r="N6" t="n">
-        <v>658.976094931053</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O6" t="n">
-        <v>553.4598375814855</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>108.5627290646399</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307325</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287756</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.900552178038</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.500130822809</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995547</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094255</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973486</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811051</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>430.3359579051146</v>
+        <v>386.6074636547083</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>80.4910621102534</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>658.976094931053</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
         <v>479.4543240367771</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304687</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>462.2005856280633</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35813,13 +35813,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396441</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224289</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167436</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.484575999283</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>68.26085851452254</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625092</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295427</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096363</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191332</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010469</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899093</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060471</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066264</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998994</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>242.0137592966815</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
         <v>632.079992146269</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>316.7192231475259</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36694,10 +36694,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>211.489036137031</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>526.8707440555623</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>211.489036137031</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>293.367630994533</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>108.4053175402694</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315892</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367724</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462633</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107903347</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.48865122431</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774261</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.158224775407</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>263.679897507031</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764189</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238402</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992753</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625051</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789091</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295225</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096331</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.342014319129</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010426</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899049</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060432</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315892</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039639</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367724</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462633</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902885</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193452</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.48865122431</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683761</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924689</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902382</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.158224775407</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>302.4748895856961</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764189</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238402</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992753</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625051</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295225</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096331</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.342014319129</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010426</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899049</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060432</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3722749.900080761</v>
+        <v>3724510.430383547</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.08262894619221</v>
+        <v>29.88610053741099</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616886</v>
+        <v>50.84114502629931</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>102.3029948719653</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>48.68946868789102</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>174.6409316730417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>21.14173709022838</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>296.9722950588268</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>198.5622246230541</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934765</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>276.7155083675887</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>109.0909680372345</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.368087155861</v>
+        <v>1619.967927219983</v>
       </c>
       <c r="C2" t="n">
-        <v>864.4055702154494</v>
+        <v>1251.005410279571</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1398716086989</v>
+        <v>892.7397116728207</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1398716086989</v>
+        <v>506.9514590745765</v>
       </c>
       <c r="F2" t="n">
-        <v>499.1943708594955</v>
+        <v>95.9655542849689</v>
       </c>
       <c r="G2" t="n">
-        <v>82.09448046942583</v>
+        <v>82.90606793530338</v>
       </c>
       <c r="H2" t="n">
-        <v>82.09448046942583</v>
+        <v>82.90606793530338</v>
       </c>
       <c r="I2" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>156.0982996717718</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745311</v>
+        <v>237.1518427762783</v>
       </c>
       <c r="L2" t="n">
-        <v>291.4544767981654</v>
+        <v>374.6076920999127</v>
       </c>
       <c r="M2" t="n">
-        <v>794.0498042278847</v>
+        <v>1004.24164498119</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895182999</v>
+        <v>1629.431735936304</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937495</v>
+        <v>2174.5933726908</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239692</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.90437972421</v>
@@ -4403,31 +4403,31 @@
         <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815747</v>
       </c>
       <c r="I3" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352079</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320009</v>
+        <v>499.1804835727247</v>
       </c>
       <c r="L3" t="n">
-        <v>884.103979029112</v>
+        <v>1002.163317769836</v>
       </c>
       <c r="M3" t="n">
-        <v>1446.292223162949</v>
+        <v>1180.051769638054</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.297497944258</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.222737149932</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.977979877466</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.90437972421</v>
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1324.153788395283</v>
+        <v>1697.619546656362</v>
       </c>
       <c r="C5" t="n">
-        <v>1324.153788395283</v>
+        <v>1697.619546656362</v>
       </c>
       <c r="D5" t="n">
-        <v>965.8880897885322</v>
+        <v>1339.353848049612</v>
       </c>
       <c r="E5" t="n">
-        <v>580.0998371902879</v>
+        <v>953.5655954513677</v>
       </c>
       <c r="F5" t="n">
-        <v>169.1139324006803</v>
+        <v>542.5796906617602</v>
       </c>
       <c r="G5" t="n">
-        <v>156.0544460510148</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H5" t="n">
-        <v>156.0544460510148</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745311</v>
+        <v>321.4042764948841</v>
       </c>
       <c r="L5" t="n">
-        <v>291.4544767981654</v>
+        <v>872.3447282234645</v>
       </c>
       <c r="M5" t="n">
-        <v>921.0884296794425</v>
+        <v>1501.978681104742</v>
       </c>
       <c r="N5" t="n">
-        <v>1546.278520634557</v>
+        <v>2127.168772059856</v>
       </c>
       <c r="O5" t="n">
-        <v>2091.440157389053</v>
+        <v>2493.174093780568</v>
       </c>
       <c r="P5" t="n">
-        <v>2519.04861869125</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.90437972421</v>
@@ -4609,10 +4609,10 @@
         <v>1697.619546656362</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.153788395283</v>
+        <v>1697.619546656362</v>
       </c>
       <c r="Y5" t="n">
-        <v>1324.153788395283</v>
+        <v>1697.619546656362</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.431881212098</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.978851930971</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.0444422697198</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642644</v>
+        <v>483.8069872642643</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911494</v>
+        <v>337.2724292911493</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H6" t="n">
-        <v>98.8460046381575</v>
+        <v>98.84600463815731</v>
       </c>
       <c r="I6" t="n">
+        <v>52.71808759448403</v>
+      </c>
+      <c r="J6" t="n">
         <v>52.7180875944842</v>
       </c>
-      <c r="J6" t="n">
-        <v>170.7774263352079</v>
-      </c>
       <c r="K6" t="n">
-        <v>499.1804835727247</v>
+        <v>119.3005601895481</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769836</v>
+        <v>622.2833943866591</v>
       </c>
       <c r="M6" t="n">
-        <v>1238.315708304459</v>
+        <v>1261.219859367377</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085768</v>
+        <v>1913.606193349119</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>2461.531432554793</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.90437972421</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.5097420413867</v>
+        <v>565.0776453179557</v>
       </c>
       <c r="C7" t="n">
-        <v>327.5097420413867</v>
+        <v>565.0776453179557</v>
       </c>
       <c r="D7" t="n">
-        <v>177.393102629051</v>
+        <v>414.9610059056199</v>
       </c>
       <c r="E7" t="n">
-        <v>177.393102629051</v>
+        <v>267.0479123232268</v>
       </c>
       <c r="F7" t="n">
-        <v>177.393102629051</v>
+        <v>120.1579648253164</v>
       </c>
       <c r="G7" t="n">
-        <v>177.393102629051</v>
+        <v>120.1579648253164</v>
       </c>
       <c r="H7" t="n">
-        <v>177.393102629051</v>
+        <v>120.1579648253164</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239621</v>
       </c>
       <c r="J7" t="n">
         <v>52.7180875944842</v>
@@ -4758,19 +4758,19 @@
         <v>1047.75168442186</v>
       </c>
       <c r="U7" t="n">
-        <v>758.5992117351946</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="V7" t="n">
-        <v>503.9147235293077</v>
+        <v>793.067196215973</v>
       </c>
       <c r="W7" t="n">
-        <v>503.9147235293077</v>
+        <v>793.067196215973</v>
       </c>
       <c r="X7" t="n">
-        <v>327.5097420413867</v>
+        <v>565.0776453179557</v>
       </c>
       <c r="Y7" t="n">
-        <v>327.5097420413867</v>
+        <v>565.0776453179557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1185.727434212263</v>
+        <v>879.5895688346476</v>
       </c>
       <c r="C8" t="n">
-        <v>816.7649172718509</v>
+        <v>510.6270518942359</v>
       </c>
       <c r="D8" t="n">
-        <v>458.4992186651004</v>
+        <v>510.6270518942359</v>
       </c>
       <c r="E8" t="n">
-        <v>72.7109660668562</v>
+        <v>510.6270518942359</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765273</v>
+        <v>503.6815511450324</v>
       </c>
       <c r="G8" t="n">
-        <v>52.71808759448425</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448425</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8250996282661</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.638357874465</v>
+        <v>850.799589339665</v>
       </c>
       <c r="M8" t="n">
-        <v>1384.337770699873</v>
+        <v>1482.517400322977</v>
       </c>
       <c r="N8" t="n">
-        <v>1578.671983591855</v>
+        <v>2109.825068382823</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610017</v>
+        <v>2279.994093699783</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949311</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724212</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724212</v>
+        <v>2614.549089734081</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724212</v>
+        <v>2360.857386479232</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724212</v>
+        <v>2029.794499135661</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.932364513276</v>
+        <v>2029.794499135661</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.466606252196</v>
+        <v>1656.328740874581</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.327274276384</v>
+        <v>1266.189408898769</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593632</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416776</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
         <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.6542705223912</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C10" t="n">
-        <v>52.71808759448425</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>52.71808759448425</v>
+        <v>347.5211286747877</v>
       </c>
       <c r="E10" t="n">
-        <v>52.71808759448425</v>
+        <v>199.6080350923946</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448425</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
-        <v>153.7660171900941</v>
+        <v>153.766017190094</v>
       </c>
       <c r="L10" t="n">
         <v>338.5990120909124</v>
@@ -5001,13 +5001,13 @@
         <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>852.0848653941783</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>624.095314496161</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.3027353526309</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5980,19 +5980,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,34 +6481,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6557,10 +6557,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83.99314676944165</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>321.19168960237</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -7999,7 +7999,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546477</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>388.1816083491099</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>58.85246329939909</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,13 +8230,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>199.8342064811453</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.99314676944203</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>58.85246329939895</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>459.9808678792256</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>45.42368237240066</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>67.31902411125836</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>214.7195592941432</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-8.360466259697908e-14</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>9.46896602165549</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.15585306139334</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>710279.0196158231</v>
+        <v>710279.0196158229</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651206.7754371158</v>
+        <v>651206.7754371159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651206.7754371159</v>
+        <v>651206.7754371158</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
@@ -26325,13 +26325,13 @@
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055057</v>
@@ -26340,22 +26340,22 @@
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474301</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>172417.1413821403</v>
@@ -26426,7 +26426,7 @@
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695013</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
@@ -26441,10 +26441,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695011</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695014</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26456,10 +26456,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917783</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280858.7124174521</v>
+        <v>-280858.7124174525</v>
       </c>
       <c r="C6" t="n">
-        <v>508987.2207047889</v>
+        <v>508987.220704789</v>
       </c>
       <c r="D6" t="n">
-        <v>506872.2288974143</v>
+        <v>506872.2288974145</v>
       </c>
       <c r="E6" t="n">
-        <v>-116592.3921374455</v>
+        <v>-116279.7508085243</v>
       </c>
       <c r="F6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="G6" t="n">
-        <v>659031.8800955468</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="H6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="I6" t="n">
-        <v>659031.8800955465</v>
+        <v>659344.5214244679</v>
       </c>
       <c r="J6" t="n">
-        <v>486614.7387134063</v>
+        <v>486927.3800423276</v>
       </c>
       <c r="K6" t="n">
-        <v>659031.8800955471</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="L6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="M6" t="n">
-        <v>531007.7626291603</v>
+        <v>531320.4039580814</v>
       </c>
       <c r="N6" t="n">
-        <v>659031.8800955466</v>
+        <v>659344.5214244681</v>
       </c>
       <c r="O6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.521424468</v>
       </c>
       <c r="P6" t="n">
-        <v>659031.8800955469</v>
+        <v>659344.5214244679</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.976094931053</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.966615459035108e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685954</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685955</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685954</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>89.87556159249452</v>
+        <v>89.07209000127575</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>362.0877464598695</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>16.65519566672145</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9261537524327</v>
@@ -27794,10 +27794,10 @@
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>74.7387961963301</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>51.06872371599542</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>191.5101260247376</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>52.26867365858618</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>87.96077371353692</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.387202709860801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>349.3304751113899</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>349.3304751113899</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>104.4244566437248</v>
       </c>
       <c r="K2" t="n">
         <v>81.87226576212782</v>
@@ -34707,7 +34707,7 @@
         <v>138.8442922460953</v>
       </c>
       <c r="M2" t="n">
-        <v>507.6720479088073</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
         <v>631.5051423789034</v>
@@ -34719,7 +34719,7 @@
         <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459781</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138624</v>
       </c>
       <c r="K3" t="n">
         <v>331.7202598358755</v>
@@ -34786,10 +34786,10 @@
         <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>567.8669132665021</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051827</v>
+        <v>257.847690351226</v>
       </c>
       <c r="O3" t="n">
         <v>553.459837581489</v>
@@ -34798,7 +34798,7 @@
         <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.14787863307501</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K5" t="n">
         <v>81.87226576212782</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460953</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M5" t="n">
         <v>635.9938917992698</v>
@@ -34950,13 +34950,13 @@
         <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540363</v>
+        <v>369.7023451724363</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890878</v>
+        <v>110.1290305176052</v>
       </c>
       <c r="Q5" t="n">
-        <v>118.0361222555155</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138624</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L6" t="n">
         <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>238.5377682167912</v>
+        <v>645.3903686673921</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051827</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="O6" t="n">
         <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>153.9864114370432</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689241</v>
+        <v>22.14787863307501</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>208.0550401125242</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>386.6074636547083</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>211.489036137031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>211.489036137031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
